--- a/medicine/Mort/Cimetière_de_Luisenstadt/Cimetière_de_Luisenstadt.xlsx
+++ b/medicine/Mort/Cimetière_de_Luisenstadt/Cimetière_de_Luisenstadt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Luisenstadt</t>
+          <t>Cimetière_de_Luisenstadt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Luisenstadt (Luisenstädtischer Friedhof) se trouve derrière la place Südstern à Berlin-Kreuzberg. Il a été aménagé en 1831 à la place d'un ancien vignoble. C'est avec une superficie de 90 155 m2[1] le plus grand des quatre cimetières de la Bergmannstraße, bien que son entrée principale ne donne pas sur cette rue. La statue de l'ange de la Résurrection, sculptée par Otto Geyer, domine le centre du cimetière.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Luisenstadt (Luisenstädtischer Friedhof) se trouve derrière la place Südstern à Berlin-Kreuzberg. Il a été aménagé en 1831 à la place d'un ancien vignoble. C'est avec une superficie de 90 155 m2 le plus grand des quatre cimetières de la Bergmannstraße, bien que son entrée principale ne donne pas sur cette rue. La statue de l'ange de la Résurrection, sculptée par Otto Geyer, domine le centre du cimetière.
 Le cimetière de Luisenstadt est le dernier repos de nombre de personnalités berlinoises, mais aussi celui de personnes tombées dans l'oubli, dont les sépultures présentent un intérêt artistique certain.
 Le cimetière de Luisenstadt est le second cimetière de l'église de Luisenstadt, le premier ayant été abandonné dans les années 1930. Il se trouvait à l'emplacement de l'actuel parc Waldeck (de).
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Luisenstadt</t>
+          <t>Cimetière_de_Luisenstadt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ernst Behrend (de) (1851–1912), écrivain
@@ -577,7 +591,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Luisenstadt</t>
+          <t>Cimetière_de_Luisenstadt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -595,7 +609,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Buste du fondateur de la dynastie des botanistes, Franz Spaeth, par Albert Manthe
